--- a/Lab Work/Lab 1 Amit Bikram Mishra.xlsx
+++ b/Lab Work/Lab 1 Amit Bikram Mishra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT\Desktop\ANUDIP\ClassWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT\Desktop\ANUDIP\AmitAnudipAF057117047\Lab Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE0F2E-2130-4EA5-AFCD-90562A9392AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE3E2F-B3CF-4EE5-8F79-22B85299B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,9 +399,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -412,6 +409,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +732,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1130,31 +1130,31 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
